--- a/Граф.xlsx
+++ b/Граф.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MyPrograms\Разное 2\graphs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{965F6459-88D7-4509-9C07-BBF4E8F503C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{590B568E-BECF-4CA4-8F4F-C62112D47376}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="11520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -78,16 +78,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>100638</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>59224</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>58737</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>42172</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>548313</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>516424</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>506412</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>499372</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -102,7 +102,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1939377" y="605876"/>
+          <a:off x="4294561" y="1655819"/>
           <a:ext cx="447675" cy="457200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -141,16 +141,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>77031</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>43900</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>35131</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>26848</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>524706</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>501100</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>482806</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>484048</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -165,7 +165,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3141596" y="590552"/>
+          <a:off x="5481190" y="1640495"/>
           <a:ext cx="447675" cy="457200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -204,16 +204,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>82923</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>58832</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>85846</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>64192</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>530598</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>470648</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>533521</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>476008</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -228,7 +228,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="688041" y="2210361"/>
+          <a:off x="2506317" y="3291486"/>
           <a:ext cx="447675" cy="411816"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -267,16 +267,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>88234</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>61876</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>46334</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>44824</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>535909</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>499925</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>494009</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>482873</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -291,7 +291,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3152799" y="2248485"/>
+          <a:off x="5492393" y="3272118"/>
           <a:ext cx="447675" cy="438049"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -330,16 +330,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>82879</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>31929</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>40978</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>14876</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>530554</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>504257</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>488653</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>487204</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -354,7 +354,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1921618" y="3311842"/>
+          <a:off x="4276802" y="4317935"/>
           <a:ext cx="447675" cy="472328"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -393,16 +393,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>73399</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>39782</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>31498</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>22730</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>521074</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>496982</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>479173</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>479930</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -417,7 +417,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4914340" y="577664"/>
+          <a:off x="7292910" y="1636377"/>
           <a:ext cx="447675" cy="457200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -456,16 +456,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>306761</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>516424</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>309684</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>499372</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>324476</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>58832</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>282575</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>64192</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -483,8 +483,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="919674" y="1063076"/>
-          <a:ext cx="1243541" cy="1182365"/>
+          <a:off x="2730155" y="2113019"/>
+          <a:ext cx="1788244" cy="1178467"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -512,16 +512,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>306761</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>470648</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>309684</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>476008</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>82879</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>268093</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>40978</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>251040</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -539,8 +539,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="919674" y="2657257"/>
-          <a:ext cx="1001944" cy="890749"/>
+          <a:off x="2730155" y="3703302"/>
+          <a:ext cx="1546647" cy="850797"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -568,16 +568,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>524706</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>268382</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>482806</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>251330</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>73399</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>272500</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>31498</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>255448</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -595,8 +595,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="3589271" y="815034"/>
-          <a:ext cx="1387432" cy="4118"/>
+          <a:off x="5928865" y="1864977"/>
+          <a:ext cx="1364045" cy="4118"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -624,16 +624,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>300869</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>501100</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>258969</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>484048</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>312072</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>61876</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>270172</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>44824</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -651,8 +651,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3365434" y="1047752"/>
-          <a:ext cx="11203" cy="1200733"/>
+          <a:off x="5705028" y="2097695"/>
+          <a:ext cx="11203" cy="1174423"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -680,16 +680,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>530554</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>499925</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>488653</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>482873</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>312072</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>268093</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>270172</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>251040</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -707,8 +707,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="2369293" y="2686534"/>
-          <a:ext cx="1007344" cy="861472"/>
+          <a:off x="4724477" y="3710167"/>
+          <a:ext cx="991754" cy="843932"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -736,16 +736,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>306717</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>516424</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>264816</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>499372</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>324476</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>31929</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>282575</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>14876</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -763,8 +763,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="2145456" y="1063076"/>
-          <a:ext cx="17759" cy="2248766"/>
+          <a:off x="4500640" y="2113019"/>
+          <a:ext cx="17759" cy="2204916"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -792,16 +792,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>548313</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>272500</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>506412</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>255448</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>77031</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>287824</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>35131</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>270772</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -819,8 +819,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="2387052" y="819152"/>
-          <a:ext cx="754544" cy="15324"/>
+          <a:off x="4742236" y="1869095"/>
+          <a:ext cx="738954" cy="15324"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -848,16 +848,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>535909</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>496982</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>494009</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>479930</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>297237</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>280901</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>255336</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>263849</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -875,8 +875,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="3600474" y="1043634"/>
-          <a:ext cx="1600067" cy="1423876"/>
+          <a:off x="5940068" y="2093577"/>
+          <a:ext cx="1576680" cy="1397566"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -904,10 +904,10 @@
   </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>79415</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>326433</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>37515</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>309380</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="314638" cy="405432"/>
     <xdr:sp macro="" textlink="">
@@ -923,7 +923,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2531067" y="326433"/>
+          <a:off x="4878456" y="1385145"/>
           <a:ext cx="314638" cy="405432"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -962,10 +962,10 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>460415</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>309868</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>418515</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>292815</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="314638" cy="405432"/>
     <xdr:sp macro="" textlink="">
@@ -981,7 +981,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4137893" y="309868"/>
+          <a:off x="6469691" y="1368580"/>
           <a:ext cx="314638" cy="405432"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1020,10 +1020,10 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>402437</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>86238</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>136419</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>259685</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="314638" cy="405432"/>
     <xdr:sp macro="" textlink="">
@@ -1039,7 +1039,299 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1015350" y="1179542"/>
+          <a:off x="3162007" y="2411214"/>
+          <a:ext cx="314638" cy="405432"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="2000"/>
+            <a:t>3</a:t>
+          </a:r>
+          <a:endParaRPr lang="ru-RU" sz="2000"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>518394</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>174909</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="314638" cy="405432"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="92" name="TextBox 91">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DEEC4202-DFB6-8D0F-084D-2C8F57EC2693}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4149100" y="3402203"/>
+          <a:ext cx="314638" cy="405432"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="2000"/>
+            <a:t>5</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>228015</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>400490</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="314638" cy="405432"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="93" name="TextBox 92">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{517C90BA-F8D3-6952-B494-3037B9E51048}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3253603" y="4165666"/>
+          <a:ext cx="314638" cy="405432"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="2000"/>
+            <a:t>3</a:t>
+          </a:r>
+          <a:endParaRPr lang="ru-RU" sz="2000"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>546164</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>408773</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="302943" cy="405432"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="94" name="TextBox 93">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6B66A145-BAE4-3124-7B41-949DD0BA3F90}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4781988" y="3636067"/>
+          <a:ext cx="302943" cy="405432"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="2000"/>
+            <a:t>2</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>244580</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>185142</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="314638" cy="405432"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="95" name="TextBox 94">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3C20A82E-0536-38E8-A667-882B0187C680}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6295756" y="2336671"/>
+          <a:ext cx="314638" cy="405432"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="2000"/>
+            <a:t>3</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>385384</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>317664</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="314638" cy="405432"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="96" name="TextBox 95">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BB63FDFE-CEBC-CB17-B454-0AD91D57F510}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5226325" y="2469193"/>
           <a:ext cx="314638" cy="405432"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1076,20 +1368,783 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>23212</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>22729</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>470887</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>479929</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="114" name="Прямоугольник 113">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{52249705-8F1B-1D12-9BCF-A2376B8098DC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7284624" y="3250023"/>
+          <a:ext cx="447675" cy="457200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1100"/>
+            <a:t>7</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>247050</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>479930</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>255336</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>22729</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="115" name="Прямая со стрелкой 114">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A2B9F50C-140A-92B9-AA0C-A6290695CB67}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="7" idx="2"/>
+          <a:endCxn id="114" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="7508462" y="2093577"/>
+          <a:ext cx="8286" cy="1156446"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>56343</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>47576</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>504018</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>504776</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="120" name="Прямоугольник 119">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2F94D10A-7B83-9D41-1F8A-C19E81A570FC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5502402" y="4350635"/>
+          <a:ext cx="447675" cy="457200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1100"/>
+            <a:t>8</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>488653</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>251040</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>56343</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>276176</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="121" name="Прямая со стрелкой 120">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CE0DE18D-81D3-161B-E4E6-D0BB43656CE2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="6" idx="3"/>
+          <a:endCxn id="120" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4724477" y="4554099"/>
+          <a:ext cx="777925" cy="25136"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>593911</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>224118</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>593911</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>526677</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="14" name="Прямая со стрелкой 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{07681F1C-6715-2657-4F66-6A4FE8A46294}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="1199029" y="224118"/>
+          <a:ext cx="0" cy="5143500"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="92D050"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>593911</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>526677</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>22412</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>526677</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="21" name="Прямая со стрелкой 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FDC518B1-E4FC-49FD-0FE5-7E0270281EBB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1199029" y="5367618"/>
+          <a:ext cx="7295030" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="92D050"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>121315</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>61876</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="317779" cy="405432"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="TextBox 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1057F694-2865-5221-ABD0-8030BD774BCA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7987844" y="5440700"/>
+          <a:ext cx="317779" cy="405432"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="2000"/>
+            <a:t>Х</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>132520</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>28260</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="309637" cy="405432"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="TextBox 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C3F26660-022A-F71D-71A3-406B06A3745B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="737638" y="566142"/>
+          <a:ext cx="309637" cy="405432"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="2000"/>
+            <a:t>Y</a:t>
+          </a:r>
+          <a:endParaRPr lang="ru-RU" sz="2000"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>78754</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>25164</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>526429</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>482364</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="26" name="Прямоугольник 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D2C5D95B-146A-E1C3-711C-B3CD830D487D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2499225" y="563046"/>
+          <a:ext cx="447675" cy="457200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>9</a:t>
+          </a:r>
+          <a:endParaRPr lang="ru-RU" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>526429</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>253764</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>58737</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>270772</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="27" name="Прямая со стрелкой 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C8E75FBA-DB44-2D9A-7B2E-59AC35487108}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="2" idx="1"/>
+          <a:endCxn id="26" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="2946900" y="791646"/>
+          <a:ext cx="1347661" cy="1092773"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>302592</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>482364</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>309684</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>64192</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="30" name="Прямая со стрелкой 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{538BDA10-0DAB-6FFC-E38F-F9B2F77B3841}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="26" idx="2"/>
+          <a:endCxn id="4" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2723063" y="1020246"/>
+          <a:ext cx="7092" cy="2271240"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>336176</xdr:colOff>
+      <xdr:colOff>78754</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>25164</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>526429</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>482364</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="39" name="Прямоугольник 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{44323409-5BB8-8740-7CA1-E1546B2935D4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1288989" y="563046"/>
+          <a:ext cx="447675" cy="457200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>10</a:t>
+          </a:r>
+          <a:endParaRPr lang="ru-RU" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>526429</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>253764</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>78754</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>253764</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="40" name="Прямая со стрелкой 39">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{24DEC599-A522-05D0-7AEC-80AB7124B59F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="26" idx="1"/>
+          <a:endCxn id="39" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1736664" y="791646"/>
+          <a:ext cx="762561" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>506213</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>326433</xdr:rowOff>
+      <xdr:rowOff>304508</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="314638" cy="405432"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="92" name="TextBox 91">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DEEC4202-DFB6-8D0F-084D-2C8F57EC2693}"/>
+        <xdr:cNvPr id="43" name="TextBox 42">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2FAD1335-BF8D-E0C6-ECBC-9EA79D087FF9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1097,7 +2152,533 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1562002" y="1966390"/>
+          <a:off x="2321566" y="1918155"/>
+          <a:ext cx="314638" cy="405432"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="2000"/>
+            <a:t>4</a:t>
+          </a:r>
+          <a:endParaRPr lang="ru-RU" sz="2000"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>136419</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>293302</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="314638" cy="405432"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="44" name="TextBox 43">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2709A912-3929-30A7-ACC4-F157EEC07D70}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1951772" y="293302"/>
+          <a:ext cx="314638" cy="405432"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="2000"/>
+            <a:t>1</a:t>
+          </a:r>
+          <a:endParaRPr lang="ru-RU" sz="2000"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>595860</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>282096</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="314638" cy="405432"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="45" name="TextBox 44">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8D557A86-7FE6-083A-A257-31453FE120C5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3621448" y="819978"/>
+          <a:ext cx="314638" cy="405432"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="2000"/>
+            <a:t>3</a:t>
+          </a:r>
+          <a:endParaRPr lang="ru-RU" sz="2000"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>74641</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>64192</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>522316</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>476008</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="53" name="Прямоугольник 52">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CE60BFE2-261E-05FA-D03F-74903C551753}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3100229" y="1677839"/>
+          <a:ext cx="447675" cy="411816"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>11</a:t>
+          </a:r>
+          <a:endParaRPr lang="ru-RU" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>522316</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>270100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>58737</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>270772</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="54" name="Прямая со стрелкой 53">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8D2468E3-CEBE-9EC4-7230-619D46A9C5BB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="2" idx="1"/>
+          <a:endCxn id="53" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="3547904" y="1883747"/>
+          <a:ext cx="746657" cy="672"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>298479</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>476008</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>46334</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>263849</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="57" name="Прямая со стрелкой 56">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7AC9E649-0021-2F8E-D2B9-1808995D8285}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="53" idx="2"/>
+          <a:endCxn id="5" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3324067" y="2089655"/>
+          <a:ext cx="2168326" cy="1401488"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>302592</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>482364</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>298479</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>64192</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="61" name="Прямая со стрелкой 60">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4A94356F-C2A0-6ECC-1A26-C717B4DBD11C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="53" idx="0"/>
+          <a:endCxn id="26" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="2723063" y="1020246"/>
+          <a:ext cx="601004" cy="657593"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>80390</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>46772</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="314638" cy="405432"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="64" name="TextBox 63">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A25D0B6-B3FB-12D0-9ADE-D47CEE56B879}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3105978" y="1122537"/>
+          <a:ext cx="314638" cy="405432"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="2000"/>
+            <a:t>1</a:t>
+          </a:r>
+          <a:endParaRPr lang="ru-RU" sz="2000"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>597809</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>432645</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="314638" cy="405432"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="65" name="TextBox 64">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7DFE0957-BFBF-A0BF-028B-4A84A2817789}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3623397" y="1508410"/>
+          <a:ext cx="314638" cy="405432"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="2000"/>
+            <a:t>1</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>294276</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>477468</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="314638" cy="405432"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="66" name="TextBox 65">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{103B1459-45CE-C165-D22B-16D88A2580A2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3924982" y="2628997"/>
           <a:ext cx="314638" cy="405432"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1136,18 +2717,18 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>269915</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>417542</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>205604</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>376616</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="314638" cy="405432"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="93" name="TextBox 92">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{517C90BA-F8D3-6952-B494-3037B9E51048}"/>
+        <xdr:cNvPr id="67" name="TextBox 66">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C24576D7-202D-F16A-0442-4C58C18F6C5F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1155,7 +2736,488 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="882828" y="3150803"/>
+          <a:off x="5046545" y="4141792"/>
+          <a:ext cx="314638" cy="405432"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="2000"/>
+            <a:t>1</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>109939</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>33936</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>557614</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>491136</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="Прямоугольник 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1D15A65A-63D7-ACDE-9E2D-DD21F619A941}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8581586" y="1109701"/>
+          <a:ext cx="447675" cy="457200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>v1</a:t>
+          </a:r>
+          <a:endParaRPr lang="ru-RU" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>109940</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>56349</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>557615</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>513549</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="Прямоугольник 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F0797398-15D0-1A8E-C1A1-6D1D261E6A4B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8581587" y="2207878"/>
+          <a:ext cx="447675" cy="457200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>v2</a:t>
+          </a:r>
+          <a:endParaRPr lang="ru-RU" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>98735</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>56349</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>546410</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>513549</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="Прямоугольник 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{01AC5D5F-5B70-266E-76CB-DB81F0422E35}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9780617" y="2207878"/>
+          <a:ext cx="447675" cy="457200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>v3</a:t>
+          </a:r>
+          <a:endParaRPr lang="ru-RU" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>557614</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>262536</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>322573</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>56349</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="19" name="Прямая со стрелкой 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4A6CA10E-42C3-840A-395C-55E3C4FFDA2D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="13" idx="3"/>
+          <a:endCxn id="17" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9029261" y="1338301"/>
+          <a:ext cx="975194" cy="869577"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>333777</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>491136</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>333778</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>56349</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="28" name="Прямая со стрелкой 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0EC4DD6D-C25A-B829-1EA7-DAE32CE6C27A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="13" idx="2"/>
+          <a:endCxn id="16" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8805424" y="1566901"/>
+          <a:ext cx="1" cy="640977"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>557615</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>284949</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>98735</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>284949</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="32" name="Прямая со стрелкой 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32129568-D2B7-1CF5-6ABC-6380BF06097B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="16" idx="3"/>
+          <a:endCxn id="17" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9029262" y="2436478"/>
+          <a:ext cx="751355" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>440926</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>270403</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="444609" cy="405432"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="37" name="TextBox 36">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{09A19771-E359-6CB8-81E5-0A401B92FC61}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9517691" y="1346168"/>
+          <a:ext cx="444609" cy="405432"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="2000"/>
+            <a:t>2</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="2000"/>
+            <a:t>0</a:t>
+          </a:r>
+          <a:endParaRPr lang="ru-RU" sz="2000"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>429721</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>57492</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="314638" cy="405432"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="41" name="TextBox 40">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1A50825B-CA82-77DA-CEF8-A7486B3DBEDA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8296250" y="1671139"/>
           <a:ext cx="314638" cy="405432"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1194,76 +3256,18 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>588065</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>425825</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="302943" cy="405432"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="94" name="TextBox 93">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6B66A145-BAE4-3124-7B41-949DD0BA3F90}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2426804" y="2612434"/>
-          <a:ext cx="302943" cy="405432"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="ru-RU" sz="2000"/>
-            <a:t>2</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>286480</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>202195</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>127161</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>393668</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="314638" cy="405432"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="95" name="TextBox 94">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3C20A82E-0536-38E8-A667-882B0187C680}"/>
+        <xdr:cNvPr id="42" name="TextBox 41">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A324253F-AEEE-C64A-9AD1-EBFC03DC371E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1271,7 +3275,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3963958" y="1295499"/>
+          <a:off x="9203926" y="2007315"/>
           <a:ext cx="314638" cy="405432"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1300,310 +3304,15 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr lang="ru-RU" sz="2000"/>
+            <a:rPr lang="en-US" sz="2000"/>
             <a:t>3</a:t>
           </a:r>
+          <a:endParaRPr lang="ru-RU" sz="2000"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>427284</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>334717</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="314638" cy="405432"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="96" name="TextBox 95">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BB63FDFE-CEBC-CB17-B454-0AD91D57F510}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2878936" y="1428021"/>
-          <a:ext cx="314638" cy="405432"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="ru-RU" sz="2000"/>
-            <a:t>2</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>65113</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>39781</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>512788</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>496981</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="114" name="Прямоугольник 113">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{52249705-8F1B-1D12-9BCF-A2376B8098DC}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4968417" y="2226390"/>
-          <a:ext cx="447675" cy="457200"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="ru-RU" sz="1100"/>
-            <a:t>7</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>288951</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>496982</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>297237</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>39781</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="115" name="Прямая со стрелкой 114">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A2B9F50C-140A-92B9-AA0C-A6290695CB67}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="7" idx="2"/>
-          <a:endCxn id="114" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="5192255" y="1043634"/>
-          <a:ext cx="8286" cy="1182756"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>98243</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>64629</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>545918</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>521829</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="120" name="Прямоугольник 119">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2F94D10A-7B83-9D41-1F8A-C19E81A570FC}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3162808" y="3344542"/>
-          <a:ext cx="447675" cy="457200"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="ru-RU" sz="1100"/>
-            <a:t>8</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>530554</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>268093</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>98243</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>293229</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="121" name="Прямая со стрелкой 120">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CE0DE18D-81D3-161B-E4E6-D0BB43656CE2}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="6" idx="3"/>
-          <a:endCxn id="120" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2369293" y="3548006"/>
-          <a:ext cx="793515" cy="25136"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1872,8 +3581,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="S4" sqref="S4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
